--- a/markdown_generator/TSV_Generator.xlsx
+++ b/markdown_generator/TSV_Generator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE030D8B-6F22-432C-81F2-56F3981CCC31}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D2630-44CE-40FA-9529-D1461020C407}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>pub_date</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Power-Based Side-Channel Attack for AES Key Extraction on the ATMega328 Microcontroller</t>
   </si>
   <si>
-    <t>Unpublished Report</t>
-  </si>
-  <si>
-    <t>U. Banerjee, L. Ho and S. Koppula, "Power-Based Side-Channel Attack for AES Key Extraction on the ATMega328 Microcontroller," MIT 6.858 Computer Systems Security Unpublished Report, December 2015.</t>
-  </si>
-  <si>
     <t>http://css.csail.mit.edu/6.858/2015/projects/utsav-lisayz-skoppula.pdf</t>
   </si>
   <si>
@@ -107,10 +101,6 @@
     <t>Thesis, Massachusetts Institute of Technology</t>
   </si>
   <si>
-    <t>The Internet of Things (IoT) has introduced a vision of an Internet where computing and sensing devices are interconnected. Digitally connected devices are encroaching on every aspect of our lives, including our homes, cars, offices, and even our bodies. Researchers estimate that there will be over 50 billion wireless connected devices by 2020. On one hand, the IoT enables fundamentally new applications, but on the other, these devices are attractive targets for cyber attackers, thus making IoT security a major concern. Datagram Transport Layer Security (DTLS) is considered to be one of the most suited protocols for securing the IoT. However, computation and communication overheads make it very expensive to implement DTLS on resource-constrained IoT sensor nodes.
-In this work, we profile the energy costs of DTLS version 1.3, using experimental models for cryptographic computations and radio-frequency (RF) communications. Based on this analysis, we propose protocol optimizations that can reduce the overall energy consumption of DTLS up to 45%, while still maintaining the same security strength of the standard DTLS. We discuss energy-efficient architectures for implementing the standard cryptographic primitives AES (Advanced Encryption Standard), SHA (Secure Hash Algorithm) and ECC (Elliptic Curve Cryptography) in hardware. Our hardware can provide more than 2,500 times reduction in energy consumption compared to traditional software implementations. These hardware primitives are integrated with dedicated control and memory to design a DTLS co-processor that can accelerate the complete DTLS state machine in hardware, thus minimizing the energy consumption due to DTLS computations. The proposed DTLS core is integrated with a RISC-V micro-processor to accurately profile these functions, as well as design custom protocols using standalone cryptographic instructions.</t>
-  </si>
-  <si>
     <t>U. Banerjee, "Energy-Efficient Protocols and Hardware Architectures for Transport Layer Security," S.M. Thesis, Massachusetts Institute of Technology, June 2017.</t>
   </si>
   <si>
@@ -166,6 +156,30 @@
   </si>
   <si>
     <t>An Energy-Efficient Reconfigurable DTLS Cryptographic Engine for End-to-End Security in IoT Applications</t>
+  </si>
+  <si>
+    <t>The Internet of Things (IoT) has introduced a vision of an Internet where computing and sensing devices are interconnected. Digitally connected devices are encroaching on every aspect of our lives, including our homes, cars, offices, and even our bodies. Researchers estimate that there will be over 50 billion wireless connected devices by 2020. On one hand, the IoT enables fundamentally new applications, but on the other, these devices are attractive targets for cyber attackers, thus making IoT security a major concern. Datagram Transport Layer Security (DTLS) is considered to be one of the most suited protocols for securing the IoT. However, computation and communication overheads make it very expensive to implement DTLS on resource-constrained IoT sensor nodes. In this work, we profile the energy costs of DTLS version 1.3, using experimental models for cryptographic computations and radio-frequency (RF) communications. Based on this analysis, we propose protocol optimizations that can reduce the overall energy consumption of DTLS up to 45%, while still maintaining the same security strength of the standard DTLS. We discuss energy-efficient architectures for implementing the standard cryptographic primitives AES (Advanced Encryption Standard), SHA (Secure Hash Algorithm) and ECC (Elliptic Curve Cryptography) in hardware. Our hardware can provide more than 2,500 times reduction in energy consumption compared to traditional software implementations. These hardware primitives are integrated with dedicated control and memory to design a DTLS co-processor that can accelerate the complete DTLS state machine in hardware, thus minimizing the energy consumption due to DTLS computations. The proposed DTLS core is integrated with a RISC-V micro-processor to accurately profile these functions, as well as design custom protocols using standalone cryptographic instructions.</t>
+  </si>
+  <si>
+    <t>U. Banerjee, L. Ho and S. Koppula, "Power-Based Side-Channel Attack for AES Key Extraction on the ATMega328 Microcontroller," MIT Computer Systems Security Report, December 2015.</t>
+  </si>
+  <si>
+    <t>MIT Computer Systems Security Report</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>talk_url</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -233,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -247,6 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -580,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -603,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -626,13 +641,13 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42339</v>
       </c>
@@ -640,42 +655,42 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42887</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
@@ -683,22 +698,22 @@
         <v>43070</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
@@ -706,22 +721,22 @@
         <v>43132</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -740,12 +755,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04564C3F-3442-4670-94B1-101282C99DB8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/markdown_generator/TSV_Generator.xlsx
+++ b/markdown_generator/TSV_Generator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D2630-44CE-40FA-9529-D1461020C407}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E87DD-351F-4399-982A-15B5622BA29B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>pub_date</t>
   </si>
@@ -44,15 +44,6 @@
     <t>paper_url</t>
   </si>
   <si>
-    <t>Study of Thermal Effects in AlGaN/GaN High Electron Mobility Transistors (HEMTs) and Refinement of Existing Mobility and I-V Models</t>
-  </si>
-  <si>
-    <t>The current-voltage characteristics of High Electron Mobility Transistors (HEMTs) show significant variations, especially in the saturation region, with change in the substrate on which the HEMT has been grown. One of the most important variations is the gradual decline in the current levels at high drain voltages for HEMTs grown on substrates like sapphire and silicon. This drop in current has been observed to be much higher in sapphire than in silicon, attributed to the effect of self-heating in the device structure. With increasing drain voltage, the channel gets heated up, thus increasing the effects of lattice scattering. A substrate with higher thermal conductivity can dissipate this heat successfully and reduce the scattering, while a substrate with lower thermal conductivity cannot do the same. AlGaN/GaN HEMTs grown on sapphire and Si(111) have been taken as the basis of this study. Existing analytical models include the self-heating effects based on substrate conductance and thickness. The model presented in this work refines the existing model by including the effects of the buffer layer and the temperature variation of thermal conductivity of the layers below the channel. The present model also incorporates the effects of scattering due to material defects on the 2-DEG mobility. The model agrees well with the current-voltage values obtained from published experimental data. The results of our present model show considerable improvement over other available models.</t>
-  </si>
-  <si>
-    <t>Thesis, Indian Institute of Technology Kharagpur</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/s11664-014-3050-4</t>
   </si>
   <si>
@@ -92,24 +83,6 @@
     <t>We demonstrate the extraction of an AES secret key from flash memory on the ATMega328 microcontroller (the microcontroller used on the popular Arduino Genuino/Uno board). We loaded a standard AVR-architecture AES-128 implementation onto the chip and encrypted randomly chosen plaintexts with several different keys. We measured the chip’s power consumption during encryption, correlated observed power consumption with the expected power consumption of the plaintexts with every possible key, and ultimately extracted the 128-bit key used during AES. We describe here our test infrastructure for automated power trace collection, an overview of our correlation attack, sanitization of the traces and stumbling blocks encountered during data collection and analysis, and results of our attack.</t>
   </si>
   <si>
-    <t>Energy-Efficient Protocols and Hardware Architectures for Transport Layer Security</t>
-  </si>
-  <si>
-    <t>U. Banerjee, "Study of Thermal Effects in AlGaN/GaN High Electron Mobility Transistors (HEMTs) and Refinement of Existing Mobility and I-V Models," B.Tech. Thesis, Indian Institute of Technology Kharagpur, April 2013.</t>
-  </si>
-  <si>
-    <t>Thesis, Massachusetts Institute of Technology</t>
-  </si>
-  <si>
-    <t>U. Banerjee, "Energy-Efficient Protocols and Hardware Architectures for Transport Layer Security," S.M. Thesis, Massachusetts Institute of Technology, June 2017.</t>
-  </si>
-  <si>
-    <t>https://dspace.mit.edu/bitstream/handle/1721.1/111861/1005227047-MIT.pdf</t>
-  </si>
-  <si>
-    <t>2013-btech-thesis</t>
-  </si>
-  <si>
     <t>2014-jem</t>
   </si>
   <si>
@@ -119,9 +92,6 @@
     <t>2015-report-858</t>
   </si>
   <si>
-    <t>2017-sm-thesis</t>
-  </si>
-  <si>
     <t>eeDTLS: Energy-Efficient Datagram Transport Layer Security for the Internet of Things</t>
   </si>
   <si>
@@ -156,9 +126,6 @@
   </si>
   <si>
     <t>An Energy-Efficient Reconfigurable DTLS Cryptographic Engine for End-to-End Security in IoT Applications</t>
-  </si>
-  <si>
-    <t>The Internet of Things (IoT) has introduced a vision of an Internet where computing and sensing devices are interconnected. Digitally connected devices are encroaching on every aspect of our lives, including our homes, cars, offices, and even our bodies. Researchers estimate that there will be over 50 billion wireless connected devices by 2020. On one hand, the IoT enables fundamentally new applications, but on the other, these devices are attractive targets for cyber attackers, thus making IoT security a major concern. Datagram Transport Layer Security (DTLS) is considered to be one of the most suited protocols for securing the IoT. However, computation and communication overheads make it very expensive to implement DTLS on resource-constrained IoT sensor nodes. In this work, we profile the energy costs of DTLS version 1.3, using experimental models for cryptographic computations and radio-frequency (RF) communications. Based on this analysis, we propose protocol optimizations that can reduce the overall energy consumption of DTLS up to 45%, while still maintaining the same security strength of the standard DTLS. We discuss energy-efficient architectures for implementing the standard cryptographic primitives AES (Advanced Encryption Standard), SHA (Secure Hash Algorithm) and ECC (Elliptic Curve Cryptography) in hardware. Our hardware can provide more than 2,500 times reduction in energy consumption compared to traditional software implementations. These hardware primitives are integrated with dedicated control and memory to design a DTLS co-processor that can accelerate the complete DTLS state machine in hardware, thus minimizing the energy consumption due to DTLS computations. The proposed DTLS core is integrated with a RISC-V micro-processor to accurately profile these functions, as well as design custom protocols using standalone cryptographic instructions.</t>
   </si>
   <si>
     <t>U. Banerjee, L. Ho and S. Koppula, "Power-Based Side-Channel Attack for AES Key Extraction on the ATMega328 Microcontroller," MIT Computer Systems Security Report, December 2015.</t>
@@ -543,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,175 +548,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>41730</v>
+        <v>42036</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>42036</v>
+        <v>42339</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>42339</v>
+        <v>43070</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{34403AAC-849B-4484-8B0B-C37B6C6F2CF9}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{7F513AF8-5BB3-4C08-82E4-59E983DF67D1}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{147E4CFF-9BA8-483B-923F-003CBDF3C974}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{F401C67A-EA7F-4544-88DC-1D01105228FD}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{4DE63873-540F-417D-ABF5-429072AC86AD}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{7895D0B2-6690-4D2E-8382-9FA23F169203}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{34403AAC-849B-4484-8B0B-C37B6C6F2CF9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7F513AF8-5BB3-4C08-82E4-59E983DF67D1}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{147E4CFF-9BA8-483B-923F-003CBDF3C974}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{4DE63873-540F-417D-ABF5-429072AC86AD}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{7895D0B2-6690-4D2E-8382-9FA23F169203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -757,9 +680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04564C3F-3442-4670-94B1-101282C99DB8}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
@@ -778,16 +701,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/TSV_Generator.xlsx
+++ b/markdown_generator/TSV_Generator.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E87DD-351F-4399-982A-15B5622BA29B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7542205F-2398-4609-9F93-A356C1C8474A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
-    <sheet name="Talks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>pub_date</t>
   </si>
@@ -132,21 +131,6 @@
   </si>
   <si>
     <t>MIT Computer Systems Security Report</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>talk_url</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
 </sst>
 </file>
@@ -214,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -228,7 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,47 +657,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04564C3F-3442-4670-94B1-101282C99DB8}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>